--- a/output/SharedHealthSummary/organization-dh-base-1.xlsx
+++ b/output/SharedHealthSummary/organization-dh-base-1.xlsx
@@ -711,7 +711,7 @@
     <t>HPI-O number</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-rendered-value.html).</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html).</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>

--- a/output/SharedHealthSummary/organization-dh-base-1.xlsx
+++ b/output/SharedHealthSummary/organization-dh-base-1.xlsx
@@ -711,7 +711,7 @@
     <t>HPI-O number</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html).</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-rendered-value.html).</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>

--- a/output/SharedHealthSummary/organization-dh-base-1.xlsx
+++ b/output/SharedHealthSummary/organization-dh-base-1.xlsx
@@ -711,7 +711,7 @@
     <t>HPI-O number</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-rendered-value.html).</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>

--- a/output/SharedHealthSummary/organization-dh-base-1.xlsx
+++ b/output/SharedHealthSummary/organization-dh-base-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="380">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Organization.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>Organization.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -229,7 +229,7 @@
     <t>Organization.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -261,7 +261,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -291,7 +291,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -317,7 +317,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -348,7 +348,7 @@
     <t>Organization.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -400,7 +400,7 @@
     <t>Organization.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -465,7 +465,7 @@
     <t>Organization.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -511,7 +511,7 @@
     <t>Organization.identifier.type.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="HPI-O"/&gt;</t>
+    <t>HPI-O</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -575,10 +575,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/hpio/1.0"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/hi/hpio/1.0</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -602,7 +602,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>16</t>
@@ -623,7 +623,7 @@
     <t>Organization.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="ABN"/&gt;</t>
+    <t>ABN</t>
   </si>
   <si>
     <t>Namespace for ABN</t>
@@ -710,10 +710,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/id/abn"/&gt;</t>
-  </si>
-  <si>
-    <t>ABN</t>
+    <t>http://hl7.org.au/id/abn</t>
   </si>
   <si>
     <t>Australian Business Number (ABN) identifier .</t>
@@ -735,16 +732,13 @@
     <t>Coded identifier type for ACN</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="ACN"/&gt;</t>
+    <t>ACN</t>
   </si>
   <si>
     <t>Namespace for ACN</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/id/acn"/&gt;</t>
-  </si>
-  <si>
-    <t>ACN</t>
+    <t>http://hl7.org.au/id/acn</t>
   </si>
   <si>
     <t>Australian Company Number (ACN) identifier</t>
@@ -766,16 +760,13 @@
     <t>Description of identifier</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="ARBN"/&gt;</t>
+    <t>ARBN</t>
   </si>
   <si>
     <t>Namespace for ARBN</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/id/arbn"/&gt;</t>
-  </si>
-  <si>
-    <t>ARBN</t>
+    <t>http://hl7.org.au/id/arbn</t>
   </si>
   <si>
     <t>Australian Registered Body Number (ARBN) identifier.</t>
@@ -800,7 +791,7 @@
     <t>Element describing the type of identifier</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="PAI-O"/&gt;</t>
+    <t>PAI-O</t>
   </si>
   <si>
     <t>Namespace for PAI-O</t>
@@ -809,7 +800,7 @@
     <t>This namespace is used for qualified identifiers to represent My Health Record (PCEHR) Assigned Identity for Organisations (PAI-O) numbers. This is an organisational identifier for organisations who are not eligible for an Healthcare Provider Identifier – Organisation (HPI-O). When represented as an OID, the prefix would be 1.2.36.1.2001.1007.1 An example of the syntax of a PAI-O represented as a qualified identifier using this namespace is:  http://ns.electronichealth.net.au/id/pcehr/paio/1.0/800364wwwwxxxxxz where:   wwww is '0001' is the resource management partition; xxxxx is issued by the system operator; z is the check digit derived using ISO/IEC 7812 across the 15-digit number.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/pcehr/paio/1.0"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/pcehr/paio/1.0</t>
   </si>
   <si>
     <t>PAI-O number</t>
@@ -831,7 +822,7 @@
     <t>Identifier type for CSP number</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="CSP"/&gt;</t>
+    <t>CSP</t>
   </si>
   <si>
     <t>Namespace for CSP number</t>
@@ -840,7 +831,7 @@
     <t>This namespace is used for qualified identifiers to represent Contracted Service Provider (CSP) numbers. An example of the syntax of a CSP number represented as a qualified identifer using this namespace is: http://ns.electronichealth.net.au/id/hi/csp/1.0/8003630000000000</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/csp/1.0"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/hi/csp/1.0</t>
   </si>
   <si>
     <t>CSP number</t>
@@ -861,13 +852,13 @@
     <t>Identifier type for NATA accreditation number</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="NATA Accreditation Number"/&gt;</t>
+    <t>NATA Accreditation Number</t>
   </si>
   <si>
     <t>Namespace for NATA accreditation number</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/id/nata-accreditation"/&gt;</t>
+    <t>http://hl7.org.au/id/nata-accreditation</t>
   </si>
   <si>
     <t>NATA accreditation number</t>
@@ -879,7 +870,7 @@
     <t>Organization.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -897,7 +888,7 @@
     <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>No equivalent in HL7 v2</t>
@@ -990,7 +981,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -1026,7 +1017,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -1062,7 +1053,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1)
 </t>
   </si>
   <si>
@@ -1081,7 +1072,7 @@
     <t>Organization.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1147,7 +1138,7 @@
     <t>Organization.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
+    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
 </t>
   </si>
   <si>
@@ -1205,7 +1196,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Endpoint]]}
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
@@ -1268,67 +1259,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1364,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN118"/>
+  <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1387,7 +1378,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -5228,10 +5219,10 @@
         <v>122</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>185</v>
@@ -5536,7 +5527,7 @@
         <v>105</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>40</v>
@@ -5561,10 +5552,10 @@
         <v>106</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
@@ -5629,7 +5620,7 @@
         <v>112</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>113</v>
@@ -6005,7 +5996,7 @@
         <v>143</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>214</v>
@@ -6467,7 +6458,7 @@
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>40</v>
@@ -6564,7 +6555,7 @@
         <v>63</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>220</v>
@@ -6578,7 +6569,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>40</v>
@@ -6675,10 +6666,10 @@
         <v>122</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>185</v>
@@ -6983,7 +6974,7 @@
         <v>105</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>40</v>
@@ -7008,10 +6999,10 @@
         <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
@@ -7076,7 +7067,7 @@
         <v>112</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>113</v>
@@ -7452,7 +7443,7 @@
         <v>143</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>214</v>
@@ -7912,7 +7903,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>40</v>
@@ -8009,7 +8000,7 @@
         <v>63</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>220</v>
@@ -8023,7 +8014,7 @@
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>40</v>
@@ -8120,10 +8111,10 @@
         <v>122</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>185</v>
@@ -8428,7 +8419,7 @@
         <v>105</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>40</v>
@@ -8453,10 +8444,10 @@
         <v>106</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
@@ -8521,7 +8512,7 @@
         <v>112</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>113</v>
@@ -8897,10 +8888,10 @@
         <v>143</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>146</v>
@@ -9359,7 +9350,7 @@
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>40</v>
@@ -9456,10 +9447,10 @@
         <v>63</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
@@ -9470,7 +9461,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>40</v>
@@ -9567,10 +9558,10 @@
         <v>122</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>185</v>
@@ -9875,7 +9866,7 @@
         <v>105</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>40</v>
@@ -9900,10 +9891,10 @@
         <v>106</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
@@ -9968,7 +9959,7 @@
         <v>112</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>113</v>
@@ -10344,10 +10335,10 @@
         <v>143</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>146</v>
@@ -10806,7 +10797,7 @@
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>40</v>
@@ -10903,10 +10894,10 @@
         <v>63</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
@@ -10917,7 +10908,7 @@
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>40</v>
@@ -11014,10 +11005,10 @@
         <v>122</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>185</v>
@@ -11322,7 +11313,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>40</v>
@@ -11347,10 +11338,10 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
@@ -11791,7 +11782,7 @@
         <v>143</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>214</v>
@@ -12253,7 +12244,7 @@
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R98" t="s" s="2">
         <v>40</v>
@@ -12350,7 +12341,7 @@
         <v>63</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>220</v>
@@ -12364,7 +12355,7 @@
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>40</v>
@@ -12461,10 +12452,10 @@
         <v>122</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>185</v>
@@ -12766,7 +12757,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12789,22 +12780,22 @@
         <v>51</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="K103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
@@ -12850,7 +12841,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -12865,21 +12856,21 @@
         <v>40</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12905,16 +12896,16 @@
         <v>143</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>40</v>
@@ -12939,13 +12930,13 @@
         <v>40</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>40</v>
@@ -12963,7 +12954,7 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -12978,21 +12969,21 @@
         <v>40</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13018,16 +13009,16 @@
         <v>122</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N105" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>40</v>
@@ -13076,7 +13067,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13091,13 +13082,13 @@
         <v>40</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>40</v>
@@ -13105,7 +13096,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13131,16 +13122,16 @@
         <v>122</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>40</v>
@@ -13189,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -13207,7 +13198,7 @@
         <v>40</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>40</v>
@@ -13218,7 +13209,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13241,19 +13232,19 @@
         <v>40</v>
       </c>
       <c r="J107" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>40</v>
@@ -13302,7 +13293,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -13311,19 +13302,19 @@
         <v>42</v>
       </c>
       <c r="AH107" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK107" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AI107" t="s" s="2">
+      <c r="AL107" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>40</v>
@@ -13331,7 +13322,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13354,19 +13345,19 @@
         <v>40</v>
       </c>
       <c r="J108" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>40</v>
@@ -13415,7 +13406,7 @@
         <v>40</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
@@ -13424,19 +13415,19 @@
         <v>42</v>
       </c>
       <c r="AH108" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK108" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AI108" t="s" s="2">
+      <c r="AL108" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>40</v>
@@ -13444,7 +13435,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13467,17 +13458,17 @@
         <v>51</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>40</v>
@@ -13526,7 +13517,7 @@
         <v>40</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -13541,10 +13532,10 @@
         <v>40</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>126</v>
@@ -13555,7 +13546,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13578,19 +13569,19 @@
         <v>40</v>
       </c>
       <c r="J110" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>40</v>
@@ -13639,7 +13630,7 @@
         <v>40</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
@@ -13651,13 +13642,13 @@
         <v>40</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>40</v>
@@ -13668,7 +13659,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13777,7 +13768,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13888,11 +13879,11 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -13917,7 +13908,7 @@
         <v>102</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>99</v>
@@ -13970,7 +13961,7 @@
         <v>40</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -13999,7 +13990,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14025,14 +14016,14 @@
         <v>143</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>40</v>
@@ -14060,10 +14051,10 @@
         <v>73</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>40</v>
@@ -14081,7 +14072,7 @@
         <v>40</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -14099,7 +14090,7 @@
         <v>40</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>40</v>
@@ -14110,7 +14101,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14133,17 +14124,17 @@
         <v>40</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>40</v>
@@ -14192,7 +14183,7 @@
         <v>40</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -14207,10 +14198,10 @@
         <v>40</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>40</v>
@@ -14221,7 +14212,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14244,17 +14235,17 @@
         <v>40</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>40</v>
@@ -14303,7 +14294,7 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -14318,10 +14309,10 @@
         <v>40</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>40</v>
@@ -14332,7 +14323,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14355,17 +14346,17 @@
         <v>40</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>40</v>
@@ -14414,7 +14405,7 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -14429,10 +14420,10 @@
         <v>40</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>40</v>
@@ -14443,7 +14434,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14466,17 +14457,17 @@
         <v>40</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>40</v>
@@ -14525,7 +14516,7 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>

--- a/output/SharedHealthSummary/organization-dh-base-1.xlsx
+++ b/output/SharedHealthSummary/organization-dh-base-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="383">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Organization.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>Organization.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -229,7 +229,7 @@
     <t>Organization.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -261,7 +261,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -291,7 +291,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -317,7 +317,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -348,7 +348,7 @@
     <t>Organization.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -400,7 +400,7 @@
     <t>Organization.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -465,7 +465,7 @@
     <t>Organization.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -511,7 +511,7 @@
     <t>Organization.identifier.type.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>HPI-O</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="HPI-O"/&gt;</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -575,10 +575,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/hi/hpio/1.0</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/hpio/1.0"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -602,7 +602,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
   </si>
   <si>
     <t>16</t>
@@ -623,7 +623,7 @@
     <t>Organization.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -701,16 +701,19 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="ABN"/&gt;</t>
+  </si>
+  <si>
+    <t>Namespace for ABN</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/id/abn"/&gt;</t>
+  </si>
+  <si>
     <t>ABN</t>
-  </si>
-  <si>
-    <t>Namespace for ABN</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/id/abn</t>
   </si>
   <si>
     <t>Australian Business Number (ABN) identifier .</t>
@@ -732,13 +735,16 @@
     <t>Coded identifier type for ACN</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="ACN"/&gt;</t>
+  </si>
+  <si>
+    <t>Namespace for ACN</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/id/acn"/&gt;</t>
+  </si>
+  <si>
     <t>ACN</t>
-  </si>
-  <si>
-    <t>Namespace for ACN</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/id/acn</t>
   </si>
   <si>
     <t>Australian Company Number (ACN) identifier</t>
@@ -760,13 +766,16 @@
     <t>Description of identifier</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="ARBN"/&gt;</t>
+  </si>
+  <si>
+    <t>Namespace for ARBN</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/id/arbn"/&gt;</t>
+  </si>
+  <si>
     <t>ARBN</t>
-  </si>
-  <si>
-    <t>Namespace for ARBN</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/id/arbn</t>
   </si>
   <si>
     <t>Australian Registered Body Number (ARBN) identifier.</t>
@@ -791,7 +800,7 @@
     <t>Element describing the type of identifier</t>
   </si>
   <si>
-    <t>PAI-O</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="PAI-O"/&gt;</t>
   </si>
   <si>
     <t>Namespace for PAI-O</t>
@@ -800,7 +809,7 @@
     <t>This namespace is used for qualified identifiers to represent My Health Record (PCEHR) Assigned Identity for Organisations (PAI-O) numbers. This is an organisational identifier for organisations who are not eligible for an Healthcare Provider Identifier – Organisation (HPI-O). When represented as an OID, the prefix would be 1.2.36.1.2001.1007.1 An example of the syntax of a PAI-O represented as a qualified identifier using this namespace is:  http://ns.electronichealth.net.au/id/pcehr/paio/1.0/800364wwwwxxxxxz where:   wwww is '0001' is the resource management partition; xxxxx is issued by the system operator; z is the check digit derived using ISO/IEC 7812 across the 15-digit number.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/pcehr/paio/1.0</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/pcehr/paio/1.0"/&gt;</t>
   </si>
   <si>
     <t>PAI-O number</t>
@@ -822,7 +831,7 @@
     <t>Identifier type for CSP number</t>
   </si>
   <si>
-    <t>CSP</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="CSP"/&gt;</t>
   </si>
   <si>
     <t>Namespace for CSP number</t>
@@ -831,7 +840,7 @@
     <t>This namespace is used for qualified identifiers to represent Contracted Service Provider (CSP) numbers. An example of the syntax of a CSP number represented as a qualified identifer using this namespace is: http://ns.electronichealth.net.au/id/hi/csp/1.0/8003630000000000</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/hi/csp/1.0</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/csp/1.0"/&gt;</t>
   </si>
   <si>
     <t>CSP number</t>
@@ -852,13 +861,13 @@
     <t>Identifier type for NATA accreditation number</t>
   </si>
   <si>
-    <t>NATA Accreditation Number</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="NATA Accreditation Number"/&gt;</t>
   </si>
   <si>
     <t>Namespace for NATA accreditation number</t>
   </si>
   <si>
-    <t>http://hl7.org.au/id/nata-accreditation</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/id/nata-accreditation"/&gt;</t>
   </si>
   <si>
     <t>NATA accreditation number</t>
@@ -870,7 +879,7 @@
     <t>Organization.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -888,7 +897,7 @@
     <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
   </si>
   <si>
-    <t>true</t>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
   </si>
   <si>
     <t>No equivalent in HL7 v2</t>
@@ -981,7 +990,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {[]} {[]}
 </t>
   </si>
   <si>
@@ -1017,7 +1026,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {[]} {[]}
 </t>
   </si>
   <si>
@@ -1053,7 +1062,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1]]}
 </t>
   </si>
   <si>
@@ -1072,7 +1081,7 @@
     <t>Organization.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -1138,7 +1147,7 @@
     <t>Organization.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
+    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
 </t>
   </si>
   <si>
@@ -1196,7 +1205,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Endpoint]]}
 </t>
   </si>
   <si>
@@ -1259,67 +1268,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1355,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM118"/>
+  <dimension ref="A1:AN118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1378,7 +1387,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -5219,10 +5228,10 @@
         <v>122</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>185</v>
@@ -5527,7 +5536,7 @@
         <v>105</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>40</v>
@@ -5552,10 +5561,10 @@
         <v>106</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
@@ -5620,7 +5629,7 @@
         <v>112</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>113</v>
@@ -5996,7 +6005,7 @@
         <v>143</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>214</v>
@@ -6458,7 +6467,7 @@
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>40</v>
@@ -6555,7 +6564,7 @@
         <v>63</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>220</v>
@@ -6569,7 +6578,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>40</v>
@@ -6666,10 +6675,10 @@
         <v>122</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>185</v>
@@ -6974,7 +6983,7 @@
         <v>105</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>40</v>
@@ -6999,10 +7008,10 @@
         <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
@@ -7067,7 +7076,7 @@
         <v>112</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>113</v>
@@ -7443,7 +7452,7 @@
         <v>143</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>214</v>
@@ -7903,7 +7912,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>40</v>
@@ -8000,7 +8009,7 @@
         <v>63</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>220</v>
@@ -8014,7 +8023,7 @@
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>40</v>
@@ -8111,10 +8120,10 @@
         <v>122</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>185</v>
@@ -8419,7 +8428,7 @@
         <v>105</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>40</v>
@@ -8444,10 +8453,10 @@
         <v>106</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
@@ -8512,7 +8521,7 @@
         <v>112</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>113</v>
@@ -8888,10 +8897,10 @@
         <v>143</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>146</v>
@@ -9350,7 +9359,7 @@
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>40</v>
@@ -9447,10 +9456,10 @@
         <v>63</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
@@ -9461,7 +9470,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>40</v>
@@ -9558,10 +9567,10 @@
         <v>122</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>185</v>
@@ -9866,7 +9875,7 @@
         <v>105</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>40</v>
@@ -9891,10 +9900,10 @@
         <v>106</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
@@ -9959,7 +9968,7 @@
         <v>112</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>113</v>
@@ -10335,10 +10344,10 @@
         <v>143</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>146</v>
@@ -10797,7 +10806,7 @@
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>40</v>
@@ -10894,10 +10903,10 @@
         <v>63</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
@@ -10908,7 +10917,7 @@
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>40</v>
@@ -11005,10 +11014,10 @@
         <v>122</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>185</v>
@@ -11313,7 +11322,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>40</v>
@@ -11338,10 +11347,10 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
@@ -11782,7 +11791,7 @@
         <v>143</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>214</v>
@@ -12244,7 +12253,7 @@
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R98" t="s" s="2">
         <v>40</v>
@@ -12341,7 +12350,7 @@
         <v>63</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>220</v>
@@ -12355,7 +12364,7 @@
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>40</v>
@@ -12452,10 +12461,10 @@
         <v>122</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>185</v>
@@ -12757,7 +12766,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12780,22 +12789,22 @@
         <v>51</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
@@ -12841,7 +12850,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -12856,21 +12865,21 @@
         <v>40</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12896,16 +12905,16 @@
         <v>143</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>40</v>
@@ -12930,13 +12939,13 @@
         <v>40</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>40</v>
@@ -12954,7 +12963,7 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -12969,21 +12978,21 @@
         <v>40</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13009,16 +13018,16 @@
         <v>122</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>40</v>
@@ -13067,7 +13076,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13082,13 +13091,13 @@
         <v>40</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>40</v>
@@ -13096,7 +13105,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13122,16 +13131,16 @@
         <v>122</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>40</v>
@@ -13180,7 +13189,7 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -13198,7 +13207,7 @@
         <v>40</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>40</v>
@@ -13209,7 +13218,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13232,19 +13241,19 @@
         <v>40</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>40</v>
@@ -13293,7 +13302,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -13302,19 +13311,19 @@
         <v>42</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>40</v>
@@ -13322,7 +13331,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13345,19 +13354,19 @@
         <v>40</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>40</v>
@@ -13406,7 +13415,7 @@
         <v>40</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
@@ -13415,19 +13424,19 @@
         <v>42</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>40</v>
@@ -13435,7 +13444,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13458,17 +13467,17 @@
         <v>51</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>40</v>
@@ -13517,7 +13526,7 @@
         <v>40</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -13532,10 +13541,10 @@
         <v>40</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>126</v>
@@ -13546,7 +13555,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13569,19 +13578,19 @@
         <v>40</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>40</v>
@@ -13630,7 +13639,7 @@
         <v>40</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
@@ -13642,13 +13651,13 @@
         <v>40</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>40</v>
@@ -13659,7 +13668,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13768,7 +13777,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13879,11 +13888,11 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -13908,7 +13917,7 @@
         <v>102</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>99</v>
@@ -13961,7 +13970,7 @@
         <v>40</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -13990,7 +13999,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14016,14 +14025,14 @@
         <v>143</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>40</v>
@@ -14051,10 +14060,10 @@
         <v>73</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>40</v>
@@ -14072,7 +14081,7 @@
         <v>40</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -14090,7 +14099,7 @@
         <v>40</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>40</v>
@@ -14101,7 +14110,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14124,17 +14133,17 @@
         <v>40</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>40</v>
@@ -14183,7 +14192,7 @@
         <v>40</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -14198,10 +14207,10 @@
         <v>40</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>40</v>
@@ -14212,7 +14221,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14235,17 +14244,17 @@
         <v>40</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>40</v>
@@ -14294,7 +14303,7 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -14309,10 +14318,10 @@
         <v>40</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>40</v>
@@ -14323,7 +14332,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14346,17 +14355,17 @@
         <v>40</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>40</v>
@@ -14405,7 +14414,7 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -14420,10 +14429,10 @@
         <v>40</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>40</v>
@@ -14434,7 +14443,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14457,17 +14466,17 @@
         <v>40</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>40</v>
@@ -14516,7 +14525,7 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>

--- a/output/SharedHealthSummary/organization-dh-base-1.xlsx
+++ b/output/SharedHealthSummary/organization-dh-base-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4151" uniqueCount="384">
   <si>
     <t>Path</t>
   </si>
@@ -1142,19 +1142,33 @@
 </t>
   </si>
   <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
+    <t>Name of a human - parts and usage</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts may or may not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
   </si>
   <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>./name</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+inv-dh-humn-01:The name shall at least have text or a family name or a given name {text.exists() or family.exists() or given.exists()}</t>
+  </si>
+  <si>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
   </si>
   <si>
     <t>Organization.contact.telecom</t>
@@ -14132,9 +14146,11 @@
       <c r="L115" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M115" s="2"/>
+      <c r="M115" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="N115" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>40</v>
@@ -14192,19 +14208,19 @@
         <v>50</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>40</v>
@@ -14212,7 +14228,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14238,14 +14254,14 @@
         <v>308</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>40</v>
@@ -14294,7 +14310,7 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -14309,10 +14325,10 @@
         <v>40</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>40</v>
@@ -14323,7 +14339,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14349,14 +14365,14 @@
         <v>319</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>40</v>
@@ -14405,7 +14421,7 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -14420,10 +14436,10 @@
         <v>40</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>40</v>
@@ -14434,7 +14450,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14457,17 +14473,17 @@
         <v>40</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>40</v>
@@ -14516,7 +14532,7 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>

--- a/output/SharedHealthSummary/organization-dh-base-1.xlsx
+++ b/output/SharedHealthSummary/organization-dh-base-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}org-1:The organization SHALL at least have a name or an id, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}org-1:The organization SHALL at least have a name or an id, and possibly more than one {(identifier.count() + name.count()) &gt; 0}inv-dh-org-01:If present, the organization of which this organization forms a part shall at least have a reference, an identifier or a display {partOf.exists() implies (partOf.reference.exists() or partOf.identifier.exists() or partOf.display.exists())}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>

--- a/output/SharedHealthSummary/organization-dh-base-1.xlsx
+++ b/output/SharedHealthSummary/organization-dh-base-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}org-1:The organization SHALL at least have a name or an id, and possibly more than one {(identifier.count() + name.count()) &gt; 0}inv-dh-org-01:If present, the organization of which this organization forms a part shall at least have a reference, an identifier or a display {partOf.exists() implies (partOf.reference.exists() or partOf.identifier.exists() or partOf.display.exists())}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}org-1:The organization SHALL at least have a name or an id, and possibly more than one {(identifier.count() + name.count()) &gt; 0}inv-dh-org-01:If present, the organisation of which this organisation forms a part shall at least have a reference, an identifier or a display {partOf.exists() implies (partOf.reference.exists() or partOf.identifier.exists() or partOf.display.exists())}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>

--- a/output/SharedHealthSummary/organization-dh-base-1.xlsx
+++ b/output/SharedHealthSummary/organization-dh-base-1.xlsx
@@ -578,7 +578,7 @@
     <t>http://ns.electronichealth.net.au/id/hi/hpio/1.0</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
